--- a/Documentacion/Proyecto/Respuesta Encuestas.xlsx
+++ b/Documentacion/Proyecto/Respuesta Encuestas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Universidad\Videojuego\JanFox_V2\Documentacion\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867ADAA6-4A22-436F-BF35-B67D83B50DA5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72FBD80-0980-45C5-9B04-E82F6F9EF6C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Respuestas de Encuesta 1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="69">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -213,6 +213,21 @@
   </si>
   <si>
     <t>Le recomendaría el videojuego a sus amigos.</t>
+  </si>
+  <si>
+    <t>En absoluto</t>
+  </si>
+  <si>
+    <t>No mucho</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>En cierto modo</t>
+  </si>
+  <si>
+    <t>Mucho</t>
   </si>
 </sst>
 </file>
@@ -222,7 +237,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -233,19 +248,75 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -254,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -281,12 +352,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -296,6 +393,5004 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1200" b="0"/>
+              <a:t>El videojuego le pareció divertido.</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.3151344358748431E-2"/>
+          <c:y val="0.24625319909756463"/>
+          <c:w val="0.81369731128250311"/>
+          <c:h val="0.67686824270933077"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="10000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="127000" h="127000"/>
+                <a:bevelB w="127000" h="127000"/>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-078C-422A-82C4-344961B72568}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="10000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="127000" h="127000"/>
+                <a:bevelB w="127000" h="127000"/>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-078C-422A-82C4-344961B72568}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="10000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="127000" h="127000"/>
+                <a:bevelB w="127000" h="127000"/>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-078C-422A-82C4-344961B72568}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="10000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="127000" h="127000"/>
+                <a:bevelB w="127000" h="127000"/>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-078C-422A-82C4-344961B72568}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="10000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="127000" h="127000"/>
+                <a:bevelB w="127000" h="127000"/>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-078C-422A-82C4-344961B72568}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CO"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-078C-422A-82C4-344961B72568}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CO"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-078C-422A-82C4-344961B72568}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CO"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-078C-422A-82C4-344961B72568}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.1585931713105172"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CO"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-078C-422A-82C4-344961B72568}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CO"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-078C-422A-82C4-344961B72568}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Respuesta de Encuesta 2'!$C$18:$G$18</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>En absoluto</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>No mucho</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Normal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>En cierto modo</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mucho</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Respuesta de Encuesta 2'!$C$19:$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-078C-422A-82C4-344961B72568}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1200" b="0"/>
+              <a:t>Se le facilito más que un videojuego convencional.</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.3151344358748431E-2"/>
+          <c:y val="0.33320516758353519"/>
+          <c:w val="0.81369731128250311"/>
+          <c:h val="0.61982332462946588"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="10000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="127000" h="127000"/>
+                <a:bevelB w="127000" h="127000"/>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-16CC-4B37-9958-F475FA6BFBE7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="10000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="127000" h="127000"/>
+                <a:bevelB w="127000" h="127000"/>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-16CC-4B37-9958-F475FA6BFBE7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="10000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="127000" h="127000"/>
+                <a:bevelB w="127000" h="127000"/>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-16CC-4B37-9958-F475FA6BFBE7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="10000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="127000" h="127000"/>
+                <a:bevelB w="127000" h="127000"/>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-EFF6-44CE-9870-AD77CA6A79B6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="10000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="127000" h="127000"/>
+                <a:bevelB w="127000" h="127000"/>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-EFF6-44CE-9870-AD77CA6A79B6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.10031349062863126"/>
+                  <c:y val="-2.1644763554073702E-17"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CO"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-16CC-4B37-9958-F475FA6BFBE7}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.9662146269882777E-2"/>
+                  <c:y val="-4.7225484209954833E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CO"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-16CC-4B37-9958-F475FA6BFBE7}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CO"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-16CC-4B37-9958-F475FA6BFBE7}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.802160382226872E-2"/>
+                  <c:y val="-3.3057838946968385E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CO"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-EFF6-44CE-9870-AD77CA6A79B6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CO"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-EFF6-44CE-9870-AD77CA6A79B6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Respuesta de Encuesta 2'!$C$26:$G$26</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>En absoluto</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>No mucho</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Normal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>En cierto modo</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mucho</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Respuesta de Encuesta 2'!$C$27:$G$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-16CC-4B37-9958-F475FA6BFBE7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1400" b="0"/>
+              <a:t>Le gusto la temática del videojuego.</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14731390613168366"/>
+          <c:y val="0.33102027535814221"/>
+          <c:w val="0.71230446194225727"/>
+          <c:h val="0.66481481481481486"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="10000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="127000" h="127000"/>
+                <a:bevelB w="127000" h="127000"/>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-592B-45B9-AA5C-854C7AE6C32F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="10000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="127000" h="127000"/>
+                <a:bevelB w="127000" h="127000"/>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-592B-45B9-AA5C-854C7AE6C32F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="10000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="127000" h="127000"/>
+                <a:bevelB w="127000" h="127000"/>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-592B-45B9-AA5C-854C7AE6C32F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="10000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="127000" h="127000"/>
+                <a:bevelB w="127000" h="127000"/>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-DE37-4156-AC16-E02E3997D8BB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="10000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="127000" h="127000"/>
+                <a:bevelB w="127000" h="127000"/>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-DE37-4156-AC16-E02E3997D8BB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.3868980289230537E-2"/>
+                  <c:y val="-9.4451003541912194E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CO"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-592B-45B9-AA5C-854C7AE6C32F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.20248711222276511"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CO"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-592B-45B9-AA5C-854C7AE6C32F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CO"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-592B-45B9-AA5C-854C7AE6C32F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CO"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-DE37-4156-AC16-E02E3997D8BB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CO"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-DE37-4156-AC16-E02E3997D8BB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Respuesta de Encuesta 2'!$C$29:$G$29</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>En absoluto</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>No mucho</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Normal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>En cierto modo</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mucho</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Respuesta de Encuesta 2'!$C$30:$G$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-592B-45B9-AA5C-854C7AE6C32F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1400" b="0"/>
+              <a:t>Les recomendaría el videojuego a sus amigos. </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14380370154943942"/>
+          <c:y val="0.33518504401825805"/>
+          <c:w val="0.71230446194225727"/>
+          <c:h val="0.66481481481481486"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="10000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="127000" h="127000"/>
+                <a:bevelB w="127000" h="127000"/>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-8815-497C-879D-6F63D1B4BCCF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="10000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="127000" h="127000"/>
+                <a:bevelB w="127000" h="127000"/>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-8815-497C-879D-6F63D1B4BCCF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="10000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="127000" h="127000"/>
+                <a:bevelB w="127000" h="127000"/>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-8815-497C-879D-6F63D1B4BCCF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="10000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="127000" h="127000"/>
+                <a:bevelB w="127000" h="127000"/>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-7DDA-46AC-8031-2ED49103FA70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="10000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="127000" h="127000"/>
+                <a:bevelB w="127000" h="127000"/>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-7DDA-46AC-8031-2ED49103FA70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.10237062392270119"/>
+                  <c:y val="-4.6617924628726774E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CO"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-8815-497C-879D-6F63D1B4BCCF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.5335472390649267E-2"/>
+                  <c:y val="-9.3235849257453547E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CO"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-8815-497C-879D-6F63D1B4BCCF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.4268377912519308E-2"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CO"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-8815-497C-879D-6F63D1B4BCCF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.6600641717194779E-2"/>
+                  <c:y val="0.12120660403468944"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CO"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-7DDA-46AC-8031-2ED49103FA70}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CO"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-7DDA-46AC-8031-2ED49103FA70}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Respuesta de Encuesta 2'!$C$22:$G$22</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>En absoluto</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>No mucho</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Normal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>En cierto modo</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mucho</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Respuesta de Encuesta 2'!$C$23:$G$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8815-497C-879D-6F63D1B4BCCF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="259">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="10000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d>
+        <a:bevelT w="127000" h="127000"/>
+        <a:bevelB w="127000" h="127000"/>
+      </a:sp3d>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="259">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="10000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d>
+        <a:bevelT w="127000" h="127000"/>
+        <a:bevelB w="127000" h="127000"/>
+      </a:sp3d>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="259">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="10000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d>
+        <a:bevelT w="127000" h="127000"/>
+        <a:bevelB w="127000" h="127000"/>
+      </a:sp3d>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="259">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="10000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d>
+        <a:bevelT w="127000" h="127000"/>
+        <a:bevelB w="127000" h="127000"/>
+      </a:sp3d>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E07442C-6006-4F15-89AD-3E382817898C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1429080</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>55988</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1343355</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>46464</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92378C5B-CE7B-463C-A33F-876A35D4CCDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>545615</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>88077</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>480741</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>78552</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26262956-E070-4658-BBF8-BCB1C4C29F6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1299930</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1214205</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Gráfico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADB4B5E3-58E4-44AA-B339-AA7C5F95EADC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -501,9 +5596,9 @@
   </sheetPr>
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="30.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -547,7 +5642,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>44321.822645347223</v>
       </c>
@@ -582,7 +5677,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>44321.824320231477</v>
       </c>
@@ -617,7 +5712,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>44321.832227685183</v>
       </c>
@@ -652,7 +5747,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>44325.532970196757</v>
       </c>
@@ -687,7 +5782,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>44325.534993379624</v>
       </c>
@@ -722,7 +5817,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>44325.536749791667</v>
       </c>
@@ -757,7 +5852,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>44325.538391458336</v>
       </c>
@@ -792,7 +5887,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>44325.539617881943</v>
       </c>
@@ -827,7 +5922,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>44325.542419201389</v>
       </c>
@@ -859,7 +5954,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>44325.544100289349</v>
       </c>
@@ -894,7 +5989,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>44325.658343819443</v>
       </c>
@@ -929,7 +6024,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>44325.664264652776</v>
       </c>
@@ -961,7 +6056,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>44325.726665162038</v>
       </c>
@@ -996,7 +6091,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>44325.729061817125</v>
       </c>
@@ -1038,10 +6133,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E570748-28DE-45C1-938E-0DA4D9F4A466}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1080,10 +6175,10 @@
       <c r="A2" s="1">
         <v>44325.534209062505</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="15">
         <v>4</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="15">
         <v>5</v>
       </c>
       <c r="D2" s="2">
@@ -1106,10 +6201,10 @@
       <c r="A3" s="1">
         <v>44325.535407708332</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="14">
         <v>3</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="15">
         <v>3</v>
       </c>
       <c r="D3" s="2">
@@ -1158,7 +6253,7 @@
       <c r="A5" s="1">
         <v>44325.538586064817</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="15">
         <v>4</v>
       </c>
       <c r="C5" s="2">
@@ -1184,7 +6279,7 @@
       <c r="A6" s="1">
         <v>44325.5415603125</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="13">
         <v>2</v>
       </c>
       <c r="C6" s="2">
@@ -1210,10 +6305,10 @@
       <c r="A7" s="1">
         <v>44325.543586273147</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="13">
         <v>2</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="15">
         <v>3</v>
       </c>
       <c r="D7" s="2">
@@ -1237,7 +6332,7 @@
       <c r="B8" s="2">
         <v>5</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="15">
         <v>5</v>
       </c>
       <c r="D8" s="2">
@@ -1260,10 +6355,10 @@
       <c r="A9" s="1">
         <v>44325.683081620373</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="15">
         <v>4</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="15">
         <v>3</v>
       </c>
       <c r="D9" s="2">
@@ -1289,7 +6384,7 @@
       <c r="B10" s="2">
         <v>5</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="15">
         <v>5</v>
       </c>
       <c r="D10" s="2">
@@ -1312,10 +6407,10 @@
       <c r="A11" s="1">
         <v>44325.724501180557</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="15">
         <v>4</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="15">
         <v>3</v>
       </c>
       <c r="D11" s="2">
@@ -1338,10 +6433,10 @@
       <c r="A12" s="1">
         <v>44325.727345046296</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="15">
         <v>4</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="15">
         <v>5</v>
       </c>
       <c r="D12" s="2">
@@ -1364,10 +6459,10 @@
       <c r="A13" s="1">
         <v>44325.729356574069</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="15">
         <v>4</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="15">
         <v>5</v>
       </c>
       <c r="D13" s="2">
@@ -1393,7 +6488,7 @@
       <c r="B14" s="2">
         <v>5</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="15">
         <v>5</v>
       </c>
       <c r="D14" s="2">
@@ -1412,7 +6507,161 @@
         <v>5</v>
       </c>
     </row>
+    <row r="18" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="B18" s="16">
+        <v>1</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="16"/>
+      <c r="C19" s="12">
+        <v>0</v>
+      </c>
+      <c r="D19" s="12">
+        <v>2</v>
+      </c>
+      <c r="E19" s="12">
+        <v>1</v>
+      </c>
+      <c r="F19" s="12">
+        <v>6</v>
+      </c>
+      <c r="G19" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="B22" s="16">
+        <v>7</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23" s="16"/>
+      <c r="C23" s="12">
+        <v>0</v>
+      </c>
+      <c r="D23" s="12">
+        <v>1</v>
+      </c>
+      <c r="E23" s="12">
+        <v>0</v>
+      </c>
+      <c r="F23" s="12">
+        <v>6</v>
+      </c>
+      <c r="G23" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="B26" s="16">
+        <v>2</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B27" s="16"/>
+      <c r="C27" s="12">
+        <v>0</v>
+      </c>
+      <c r="D27" s="12">
+        <v>0</v>
+      </c>
+      <c r="E27" s="12">
+        <v>4</v>
+      </c>
+      <c r="F27" s="12">
+        <v>3</v>
+      </c>
+      <c r="G27" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="C29" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C30" s="12">
+        <v>0</v>
+      </c>
+      <c r="D30" s="12">
+        <v>0</v>
+      </c>
+      <c r="E30" s="12">
+        <v>1</v>
+      </c>
+      <c r="F30" s="12">
+        <v>7</v>
+      </c>
+      <c r="G30" s="12">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B26:B27"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>